--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yrdnqldrwn/Desktop/SOFTWARE/PayChatm/Info_aboutCVsubmitted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4C6780-3803-2845-AFEF-6DFD678008C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F7E51-EF5A-A546-B625-408E0D24D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Company name</t>
   </si>
@@ -46,68 +46,50 @@
     <t>answer date</t>
   </si>
   <si>
-    <t>Google</t>
+    <t>Marvell Israel Ltd.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=3943989705&amp;distance=25&amp;f_TPR=r604800&amp;geoId=101620260&amp;keywords=software%20engineer%20intern&amp;origin=JOB_SEARCH_PAGE_JOB_FILTER&amp;refresh=true</t>
+  </si>
+  <si>
+    <t>Embedded Software Engineer Intern</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Wix</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Data</t>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>No answer</t>
+  </si>
+  <si>
+    <t>Elbit Systems</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3987510513/?eBP=NON_CHARGEABLE_CHANNEL&amp;refId=XFMEs0hE7pT8q7JXxkoDUw%3D%3D&amp;trackingId=teUM5O%2BtSe6QBoNwyCYf8A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+  </si>
+  <si>
+    <t>Field Engineer</t>
   </si>
   <si>
     <t>web</t>
   </si>
   <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Hr</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>Marvell Israel Ltd.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/search/?currentJobId=3943989705&amp;distance=25&amp;f_TPR=r604800&amp;geoId=101620260&amp;keywords=software%20engineer%20intern&amp;origin=JOB_SEARCH_PAGE_JOB_FILTER&amp;refresh=true</t>
-  </si>
-  <si>
-    <t>Embedded Software Engineer Intern</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>No answer</t>
+    <t>2024-08-08</t>
+  </si>
+  <si>
+    <t>wait to answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +102,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,16 +135,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,17 +451,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
@@ -503,96 +496,61 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://www.linkedin.com/jobs/view/3987510513/?eBP=NON_CHARGEABLE_CHANNEL&amp;refId=XFMEs0hE7pT8q7JXxkoDUw%3D%3D&amp;trackingId=teUM5O%2BtSe6QBoNwyCYf8A%3D%3D&amp;trk=flagship3_search_srp_jobs" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,120 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yrdnqldrwn/Desktop/SOFTWARE/PayChatm/Info_aboutCVsubmitted/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F7E51-EF5A-A546-B625-408E0D24D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>link(Optional)</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>CV version</t>
-  </si>
-  <si>
-    <t>HR or website</t>
-  </si>
-  <si>
-    <t>date sent</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>answer date</t>
-  </si>
-  <si>
-    <t>Marvell Israel Ltd.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/search/?currentJobId=3943989705&amp;distance=25&amp;f_TPR=r604800&amp;geoId=101620260&amp;keywords=software%20engineer%20intern&amp;origin=JOB_SEARCH_PAGE_JOB_FILTER&amp;refresh=true</t>
-  </si>
-  <si>
-    <t>Embedded Software Engineer Intern</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>No answer</t>
-  </si>
-  <si>
-    <t>Elbit Systems</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/3987510513/?eBP=NON_CHARGEABLE_CHANNEL&amp;refId=XFMEs0hE7pT8q7JXxkoDUw%3D%3D&amp;trackingId=teUM5O%2BtSe6QBoNwyCYf8A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
-  </si>
-  <si>
-    <t>Field Engineer</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
-    <t>wait to answer</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -140,26 +67,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,110 +433,664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col width="20.6640625" customWidth="1" min="1" max="1"/>
+    <col width="53" customWidth="1" min="2" max="2"/>
+    <col width="35.5" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17.83203125" customWidth="1" min="5" max="5"/>
+    <col width="16.83203125" customWidth="1" min="6" max="6"/>
+    <col width="13.33203125" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>link(Optional)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CV version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>HR or website</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date sent</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>answer date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Marvell Israel Ltd.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/search/?currentJobId=3943989705&amp;distance=25&amp;f_TPR=r604800&amp;geoId=101620260&amp;keywords=software%20engineer%20intern&amp;origin=JOB_SEARCH_PAGE_JOB_FILTER&amp;refresh=true</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Embedded Software Engineer Intern</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Elbit Systems</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3987510513/?eBP=NON_CHARGEABLE_CHANNEL&amp;refId=XFMEs0hE7pT8q7JXxkoDUw%3D%3D&amp;trackingId=teUM5O%2BtSe6QBoNwyCYf8A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Field Engineer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Millennium</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3962586681/?eBP=CwEAAAGRRpXWuGinBFgUIMfFklyiOt9mNSNpStQhmVGV0cnbyYdzNq7NxjzhkJ0RpgzAhsT8C1U-x9kb7mBwHkWsLYI-vsz22R1QbKId0FL2fhnoSu0MpQzKt117aJw9Tj4oFT0czmLxPoHpw5kQ0vLii2AUQcQXDA1aJEGZjOVA9OPFQKTO2mLglj8ZEJQ0RcSeWaabFXxTLESgr7TqUgAs5lKne6nvTmymopl2m7A3rbDcf-guu8F0_iYvbCo2QuRSm5YX5pAja4VfT2WaBqUFXnOF1eQATORcKhJR8QSyw4e4MkD2Ljy-TG2-4O6kHnX1LKtvEXwcBQ4vAt7RZPf1jNvxcBbP3zJjvL37JO29lQ5n42JBN-pERuDUs0HCSU0l_ZRRqsOyl0aUysWUuyPwE2AI4GWrtCTUqWBQpje6JkmkzHvLWR5E0f06XOP1a10R-AJhax9t6lgkdgLYWx2Htpb-w6Bg_kWMMVw&amp;refId=HLpom%2BzZ9Fq5U7zIFyveaQ%3D%3D&amp;trackingId=Cwvt9vUbR000hHTC1XSyaA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Infrastructure Software Developer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HR: Amit Roitman.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Palo Alto Networks</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3981705177/?eBP=CwEAAAGRRplbOj7BTtAaCuk2uay4tGvYz7ra0wldCXxF-77zSj65d6MRR5ZAox7bsemNQK3PyMDyo1k8OlHQPLh_P1W-5RxrXhoYamugejMtuWinYjJkpY_MEm-i-8NqLWai-SPPh1c2Fn7klivdglpyptILVFVgOh3asxj6pWhl5YwuYWKrTf-CXVNIRSD2DEdDNbM-IbCE-5xBOuOAVJ2LvTcN-ezU_dpgWZVTLZNnDeOLzZmDa2jouz2kkoquEkUCLccUAMYrz-fXe67Dm8WdUeFZzuUUesIPzbkLwdi19jISjDBNNF_2LS5GDKSPX58Ayxas-DwhPkl6RwnLVlaHeK8amgyFdFy4S9Qe7knYfckdUaVTSKD61o18X038uCqVOyw6j15b6bW_Ht2ZhN9jGf-_r0YDAVrT_Jg36R301QSOzNRPL9JXJmHtSbPh_uQqTk3awi9NjrI2Cv_z1nHU5IId5APKIzxrsUc&amp;refId=U3QdmdJURWlBI%2FSSEBp11w%3D%3D&amp;trackingId=%2BIXbHQXpY2iXRy5UwBImNA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Principal Backend Developer -Core Team (Prisma Cloud)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HR: Shiran Serussi.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Paragon</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3972182076/?eBP=CwEAAAGRRplbOrwQ_RjPjKCEh-ayoU_6xxiNPKRNlOYn8rJDjG2_WrTVRcQrJqJvHpu-aEw-ENGwlYsr1WUG4SEfVRpGx1SERs13lc7gVvzuh7SR3bsrD0jPToZb5IMYqgkYHbtEXMiVgH0PeKoI0eqfJjSiXmb_9kZMKu06fBK0yJiMWfrM2AFwWigAYzKexM5pg2b1acujglK9V2_vjING8kp07AoTuXOokWMdmXK4DZkG0NBlfugy4TyYN1tY0GZ0xoUIDFGWknwxtgnqmyEslQgQM0Ic6UDtEWIVAuQ9maiygYdM0YX9rXzoBSoeBxLOQWd2KpmELdKcGHbeJTJ4A_q23R0_cJ13ehXvOmvSxToQi7I9Z6qqjSINHL038ZqC6j2htLfI9Y1FBI2str7Gv2bo6SDwLC6PihI0HtpnAhR-G-EWIuE5O3FZSw-hovIAmi4Fu2dLF_XBChsbEAGA1JIAY4Fy_9m7WrI&amp;refId=U3QdmdJURWlBI%2FSSEBp11w%3D%3D&amp;trackingId=0EhYtTO5fkUS5VQ%2BSNAyPw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Backend Infrastructure Engineer</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HR: Liron Ripp.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rafael Advanced Defense Systems</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3976645452/?eBP=CwEAAAGRR6aMY9q9px-ePycM1R-CcGs6-vHebcIqq5y8z3TTySs0sI8VVvdE7QN7UI_CQPlMe672DLucsD4uTxOMu8W6xpirlu1gnAvtH2AEoQGq42XgngI9ISw_rU66yDBvBech2E0N6nFktPTJtMk90yJL8eibdjMFBeMWjGPQpz_qI-7X-madSnQWMu9azAzvVmh9txYFxRm1SOwAB4Yi4TLIGJ4b1QxPJfaAWQMpY22ZH3hGR2zGKgcLkmgvomw0HLejqNsimaCdxtJKdI-kLCNayut2VrFJbF_iD5-azlrytWJPKe4TQU1ATdHH6FsOqBnZikZ5FVWcA5Algbp5hO9-dUL5nXXJR6dwBVtYxe7C3g_PwYOT2hdYZ8U_LRNrx76N7onTxjGyv3UNu4uX4SWGquj-8JOCXnMfIi_NZcsBpmqHmlEIbM-WICzDoUQPCRkOQiy0g9-O2crKHG1j7KLePfT7q2M7IC4omoUY&amp;refId=CX4GOcD%2FX7vOVT%2Fe4ezmtA%3D%3D&amp;trackingId=TnnIXfvOIv3hOuv6JxO7LA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Back End Developer</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HR: Moran Obstbaum.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rafael Advanced Defense Systems</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3977584521/?eBP=CwEAAAGRR6zEFm03OiPV-r2DEhmfl_szGK29hMU8GBL4rWRHtqAAMAfaEtM-gnWAgD-8g9f7jhLkJO1hFbmo8ZuBLysfnUA2Wz2Ck2bqvICP-EracBZTLtXhjvaDfY6UfKVn_0ApCsFfC-iegJxVOxC5zT8HbwnWUNwPY0myM7NzuB_58nCQ9jLUqkkUSH29GaVH_SrJYWpadETVnlSsybc9iWLyq51FI6_LpYrONC90lNAu1mDe947p6174m6yPxAE1H6uFsEXthBvJaHhE7hx7DCAwXR74LfkQYNOTimxjFSCY-sdb25BnSRwI1rrbzmhGxMqoi43-Pcvr9XCgFQ8c1u15l0zpueNUijiwUqdkzQBmZf1EOseO-gA685SpR3VzIt224EX55Tl2Srif0f0NRHeVl2DFHhbNrMzHJi00DZv3GMFO7T5mFVNOqTDlXSL9Yw&amp;refId=%2BaKbswSJ2Bhc43n2X2HG0Q%3D%3D&amp;trackingId=4sUiCDpRU5lw9hIxJGTNng%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C# SOFTWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HR: Moran Obstbaum.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LTS Device Technologies</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3995396823/?eBP=CwEAAAGRR68o2Rkn-zwTg6gvKPqpOfgh7wXj5vRbzbyDoV7C_ZYc6JZjgAdDhtEdwtRvVlk_-govT49vZd81YBtrBXp-9Ly41nxCSGRnS050znpDKEmJpdtdf94etPoXoynHVPsbRXG5QATmL5QQivyXiPam3fDPzk3CqLjwRbRo1P2DsiamaZrEYA3hcQv7csjLQ_7m_Tvacur-6s_J2hQsaZ6DabvVJEKSu6dkusCjC2Eb-VVnjhlTRE9G9aW-gkH0GQVcRObwCeD-XBL39qmdWRQy-tVTS6VsWCTXer5ixVOgt2PbNqIooJK8johZuScr645KhhfjrLgz2HB7FwAoRJebHD7OYBZxQ9G8MZw98UsosTzShlyaEvxRm2XmKaZtDLMTrrjxL26awvptf6UReTDBa9Jd9Q8Ni2caEfMK6loF5jb0rzU51ZDXHDlEmpJ-Zh4o2pIBl_mHFnkMNXeq71iPkuF7PB_0&amp;refId=xpXqtZHmYGxxy90BkBqo5g%3D%3D&amp;trackingId=6zYqghSe%2BMzQ9mfb8Cn3zQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>System Quality Assurance Engineer</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HR: Hilit Segal Gefen.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rafael Advanced Defense Systems</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3977584521/?eBP=CwEAAAGRR68o2Q-wYcDUw0dST1Q6MeC4Qdp5HWT2U71et58RpnmBq9KsHvIycb9_JEUKrcGOPQ2VTMZSREUxbqppmNnXKOBxWcLrM0jm898-s7ytK9mTg09FYs4gxEvJ9fRWj0oFTAtKVkquyZBrcFsXyBlshsrge7cBofj3P_NPkXppbSqo9p1kDl-Cl8uEGb0zQacayRDJ6ky9pr5LsShMFzqymlIhQy8IX61uGkq2JpB-5JBbK82GJ2yE5015FkKqIteSfqq-bFio14OEyBgXPztRK-QyBJ9RLgEInEdpZy08XnokFVMnLMubzQoQ9JnnD5LOu0yAafAkASR268ztuIJJPl-Y6HRAH3A_kmyjvO-gXdvSP7CtNevPvh6c3wFs2W64LOt2uzBZwOFhFto4KIrRk0AoIwtFeJgehSm5N4Ohx0wajViV6wJVJQ8ZeWU&amp;refId=xpXqtZHmYGxxy90BkBqo5g%3D%3D&amp;trackingId=GwqMwlkSs3mix7dcJ%2F64MQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C# SOFTWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HR: Moran Obstbaum.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rafael Advanced Defense Systems</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3951639497/?eBP=BUDGET_EXHAUSTED_JOB&amp;refId=xpXqtZHmYGxxy90BkBqo5g%3D%3D&amp;trackingId=jr3ir9%2BEQT8Oq%2B8bX7yuUg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HR: Moran Obstbaum.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LTS Device Technologies</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3995396823/?eBP=CwEAAAGRR7YpBbpyS9nh4ALL0_6kimKW1oB3LvtGIG2-l2zwllVc0RaSJmcy-jB74pirWDjrMlbhjj8TNlJX6-5ROsD66CAig7jhE3B18b5xdpeKYGQlIF6XjQ18nExhFEQ1pEt8kxeaL6XsZrLnNS54n8H3xWGI1S0CDr7lADyTcn3ugCfEB7wHERu-XqwMMc4FDqWtfafJD_flvXYuAOPabszam9bv7S4H0Qas4fCQeetafCv25oxdwCY-9jZbReKzdkG25lt9GPcDGKBDq3A1B1DQfZpwx28BiPMrPMAFcKPgMNYdCB2nX5bWnqYv3a5yD4ykvnTwq6jaHM3-ftY_L9H-h4WAZ3Sismej8fdRjPDDMDNKwZRtBKQ4HH7RDYhyD5ZcDgL0wtyqw6t551CgAeW1-ggDBgxsstqyk6osifZnlj0buCWA3E9w5FbA8yT1-_mKODJghYMXPWV5pgXynEMxflmdLNjT8z5ftg&amp;refId=Kh458neXNIVp1Tt5nbrDXQ%3D%3D&amp;trackingId=CrqhOKlYvC6njjm8SNJujg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>System Quality Assurance Engineer</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HR: Hilit Segal Gefen.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rafael Advanced Defense Systems</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3977584521/?eBP=CwEAAAGRR7YpBSBuXo_VQ0PpoGiYKLCkw4oHNr61kPDInZLeUjU5pWDab_HzC8XtaCytDIWKEEFOEZCVVDFozjB58uEMwcbh_wnyC-oXPOhjzJLEVDapxHyoo-TBGZOcD42K1t_pTz37bdW2b5MHKHa1DbWCpkw6uQkJ9-rLaMaxvkqKPDyagPnD3PLwjvtkuCRa1YUU7JJNjm56WtrM6B4EltKJyVnwc1IvFKwuKcUpn6TNj4d4Me2ln3fbh1NJtJPUMMp7XquE4XB-9dlUtk5CrDRGh4aYgS73z-wVcoU3Wuj7t17S0gNUfpFJZqVG3CMyod9kFGklz_Zo9aoPTUkM2IXVf5LfU-4fpIohQ83DdwHmvNPS-ArJ8l5-TVQXywmml9CSQ0966WNIHIOn5qKPEpNk6S-Tt9P7JtdOCsXc8Wltok42xUGwcXqX_F4_D74&amp;refId=Kh458neXNIVp1Tt5nbrDXQ%3D%3D&amp;trackingId=6PzlLKA5CNPQ1dOGRjS2jQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C# SOFTWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HR: Moran Obstbaum.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LTS Device Technologies</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3995396823/?eBP=CwEAAAGRR9HP8t49GphoiELVzwmYXsCIdRr2O3cE7JS5wLaoc7wsyTyaWezVoWWHgvAn2GJaRLRlEW9S220SKgGcsJG5ER6NNnrxeT5AzKoIKk9BdACzG6pH6A9Q2xWxRHAJ6Wxw1K7JicRG811QV1XR7iLq4Rj9FALRwbfd2re0y6zYRac5QAS7i0Yozqlv5NXRxNkQK_Dc0SU80j0g_8VX4SFypuf9oRRA0-RcoB9qKmwC1DQjwzEwK2SHqNPqpHadOCwYyHzpeJWUo6QFj3FPfMcjyu00DIVN3KjpH34Xv_FUo3L70YP4YByFXH3rq07Qoglb76JGEQSXPU4mStG7iFg_KeH7JlH-rrAlh8lb4X-Ol8mymyOE8muS7KduZjLWf--fHzMxmiwgbUj_Ti3EhZp67wUdJhILIiWF14Y0EUe_D2NYDpUClvNdm0qctnxlcyk62LuDUqLps84Bd1muPLgbzOivF-s8nGw&amp;refId=fdnUz46iFvIcz7gNhFYZ8Q%3D%3D&amp;trackingId=08oDv6abessvoYmeiiISOg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>System Quality Assurance Engineer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HR: Hilit Segal Gefen.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rafael Advanced Defense Systems</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3977584521/?eBP=CwEAAAGRR9HP8ghNcqh1GJLSD6PEVWH-dOWDBhWBHfTpCw-KuKNV0vPlclvxcogykFAJV5zeu8QwI3kGNs4DnRlDXFll4qI2VPVTbjGYgy2ywokxQWU2EOr-vwnZ-aItEQBnXvrn6QG5c5ToK35xHbZV-Y3XndlPMunO9IAn8dSMTAx3Xi27AF-9jlilucKaOf0ZRcrLaNXBRkrfkyxBZA5mPT7vZAMshPTxtMDlyDb8r8V6fXrYDS5AQpP5x9t7KvP-D11oQPKYCxu9poByT4L4gBe2KCNrSHGm3v793EcVR97poSKnmKqkoTGz0w6Qrvid-ck9B22LyMN8M4NUk9oKdjimaGKvgUj3jxzBoaVmjHcx2ETzPJr_02B_7l8w76SQ2BuJ0rVuopS79Q76gO9u06-vKd_7I5hvfOXkDzHHob-VzMtgHYKRZvWlaEUD&amp;refId=fdnUz46iFvIcz7gNhFYZ8Q%3D%3D&amp;trackingId=dp0oJATFKS6gYGghmNf1Rg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C# SOFTWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HR: Moran Obstbaum.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>wait to answer</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://www.linkedin.com/jobs/view/3987510513/?eBP=NON_CHARGEABLE_CHANNEL&amp;refId=XFMEs0hE7pT8q7JXxkoDUw%3D%3D&amp;trackingId=teUM5O%2BtSe6QBoNwyCYf8A%3D%3D&amp;trk=flagship3_search_srp_jobs" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>